--- a/bug/bug071_1_1.xlsx
+++ b/bug/bug071_1_1.xlsx
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sheet_productinfo_roomname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>触发场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +107,10 @@
   </si>
   <si>
     <t>保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_info_namenumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -508,21 +508,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5">
@@ -578,24 +578,24 @@
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="16.5">
